--- a/Planillas de Seguimiento.xlsx
+++ b/Planillas de Seguimiento.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="231">
   <si>
     <t>PC</t>
   </si>
@@ -63,6 +63,12 @@
     <t>0x0000</t>
   </si>
   <si>
+    <t>0xD000</t>
+  </si>
+  <si>
+    <t>0xFF40</t>
+  </si>
+  <si>
     <t>+0</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
     <t>+F</t>
   </si>
   <si>
+    <t>0x8C00</t>
+  </si>
+  <si>
     <t>1840</t>
   </si>
   <si>
@@ -150,158 +159,561 @@
     <t>F7FB</t>
   </si>
   <si>
-    <t>F1F8</t>
+    <t>F1F9</t>
   </si>
   <si>
     <t>F301</t>
   </si>
   <si>
+    <t>0x8C10</t>
+  </si>
+  <si>
+    <t>6880</t>
+  </si>
+  <si>
+    <t>FF40</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>[SP+1]</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Instrucción primer palabra</t>
+  </si>
+  <si>
+    <t>2da palabra</t>
+  </si>
+  <si>
+    <t>3er palabra</t>
+  </si>
+  <si>
+    <t>Instrucciones decodificada</t>
+  </si>
+  <si>
+    <t>8C00</t>
+  </si>
+  <si>
+    <t>FFEF</t>
+  </si>
+  <si>
+    <t>0001 1000 0100 0000</t>
+  </si>
+  <si>
+    <t>8C01</t>
+  </si>
+  <si>
+    <t>8C02</t>
+  </si>
+  <si>
+    <t>MOV R1, 0x7000</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>R1 = 0x7000</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0010 1000 0100 0000</t>
+  </si>
+  <si>
+    <t>8C03</t>
+  </si>
+  <si>
+    <t>8C04</t>
+  </si>
+  <si>
+    <t>ADD R1, 0x6000</t>
+  </si>
+  <si>
+    <t>R1 = 0x7000 + 0x6000 = D000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1111 0001 0000 0010</t>
+  </si>
+  <si>
+    <t>8C05</t>
+  </si>
+  <si>
+    <t>JE 0000 0010 (cero)</t>
+  </si>
+  <si>
+    <t>No se produce salto porque Z = 0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1111 0011 0000 1010</t>
+  </si>
+  <si>
+    <t>8C06</t>
+  </si>
+  <si>
+    <t>JL 0000 1010 (dio negativo)</t>
+  </si>
+  <si>
+    <t>No se produce salto porque V y N son iguales</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1111 0111 0000 0001</t>
+  </si>
+  <si>
+    <t>8C07</t>
+  </si>
+  <si>
+    <t>JVS 0000 0001 (hubo overflow)</t>
+  </si>
+  <si>
+    <t>Se produce el salto a Pc = 8C07 + 0001 = 8C08 porque V = 1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8C08</t>
+  </si>
+  <si>
+    <t>0001 1000 1000 0000</t>
+  </si>
+  <si>
+    <t>8C09</t>
+  </si>
+  <si>
+    <t>8C0A</t>
+  </si>
+  <si>
+    <t>MOV R2, 0030</t>
+  </si>
+  <si>
+    <t>R2 = 0x0030</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0011 1000 1000 0000</t>
+  </si>
+  <si>
+    <t>8C0B</t>
+  </si>
+  <si>
+    <t>8C0C</t>
+  </si>
+  <si>
+    <t>SUB R2, 00F0</t>
+  </si>
+  <si>
+    <t>R2 = 0x0030 - 0x00F0 = FF40</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1111 0111 1111 1010</t>
+  </si>
+  <si>
+    <t>8C0D</t>
+  </si>
+  <si>
+    <t>JVS 1111 1010 (hubo overflow)</t>
+  </si>
+  <si>
+    <t>No se produce salto porque V = 0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1111 0001 1111 1001</t>
+  </si>
+  <si>
+    <t>8C0E</t>
+  </si>
+  <si>
+    <t>JE 1111 1001 (cero)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1111 0011 0000 0001</t>
+  </si>
+  <si>
+    <t>8C0F</t>
+  </si>
+  <si>
+    <t>JL 0000 0001 (dio negativo)</t>
+  </si>
+  <si>
+    <t>Se produce el salto a Pc = 8C0F + 0001 = 8C10 porque N es distinto de V</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8C10</t>
+  </si>
+  <si>
+    <t>0110 1000 1000 0000</t>
+  </si>
+  <si>
+    <t>8C11</t>
+  </si>
+  <si>
+    <t>8C12</t>
+  </si>
+  <si>
+    <t>CMP R2, FF40</t>
+  </si>
+  <si>
+    <t>R2 - FF40 = FF40 - FF40 = 0000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1111 0001 0000 0001</t>
+  </si>
+  <si>
+    <t>8C13</t>
+  </si>
+  <si>
+    <t>JE 0000 0001 (fin ok)</t>
+  </si>
+  <si>
+    <t>Se produce el salto a Pc = 8C13 + 0001 = 8C14 porque Z = 0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8C14</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>8C15</t>
+  </si>
+  <si>
+    <t>Instrucción inválida</t>
+  </si>
+  <si>
+    <t>Fin de la ejecución</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0xFFEF</t>
+  </si>
+  <si>
+    <t>0x2114</t>
+  </si>
+  <si>
+    <t>0xFA00</t>
+  </si>
+  <si>
+    <t>4228</t>
+  </si>
+  <si>
+    <t>B000</t>
+  </si>
+  <si>
+    <t>FA08</t>
+  </si>
+  <si>
+    <t>6008</t>
+  </si>
+  <si>
+    <t>FEDE</t>
+  </si>
+  <si>
+    <t>F450</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>3840</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>F9F7</t>
+  </si>
+  <si>
+    <t>C000</t>
+  </si>
+  <si>
+    <t>0xFF10</t>
+  </si>
+  <si>
+    <t>FA00</t>
+  </si>
+  <si>
+    <t>FA01</t>
+  </si>
+  <si>
+    <t>FA02</t>
+  </si>
+  <si>
+    <t>MOV R1, 0x4228</t>
+  </si>
+  <si>
+    <t>R1=0x4228</t>
+  </si>
+  <si>
+    <t>1011 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>FA03</t>
+  </si>
+  <si>
+    <t>CALL FA08 (subrut)</t>
+  </si>
+  <si>
+    <t>[SP] = FA04, SP = FFEE, PC = FA08</t>
+  </si>
+  <si>
+    <t>FFEE</t>
+  </si>
+  <si>
+    <t>FA04</t>
+  </si>
+  <si>
+    <t>0011 1000 0100 0000</t>
+  </si>
+  <si>
+    <t>FAF9</t>
+  </si>
+  <si>
+    <t>FA0A</t>
+  </si>
+  <si>
+    <t>SUB R1 0x2114</t>
+  </si>
+  <si>
+    <t>Por que este DW, no va directamente SUB</t>
+  </si>
+  <si>
+    <t>R1=0x4228 - 0x2114 = 2114</t>
+  </si>
+  <si>
+    <t>FA09</t>
+  </si>
+  <si>
+    <t>1111 1001 1111 0111</t>
+  </si>
+  <si>
+    <t>JNE 1111 0111</t>
+  </si>
+  <si>
+    <t>Se produce el salto al Pc = FA02 ya que Z != 0 previo a JNE.</t>
+  </si>
+  <si>
+    <t>[SP] = FA04, SP = FFED, PC = FA08</t>
+  </si>
+  <si>
+    <t>FFED</t>
+  </si>
+  <si>
+    <t>R1=0x2114 - 0x2114 = 0000</t>
+  </si>
+  <si>
+    <t>FA0B</t>
+  </si>
+  <si>
+    <t>No se realiza el salto ya que Z = 1</t>
+  </si>
+  <si>
+    <t>1100 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>PC = FA04, SP = FFEE</t>
+  </si>
+  <si>
+    <t>0110 0000 0000 1000</t>
+  </si>
+  <si>
+    <t>FA05</t>
+  </si>
+  <si>
+    <t>FA06</t>
+  </si>
+  <si>
+    <t>FA07</t>
+  </si>
+  <si>
+    <t>CMP FEDE [F450]</t>
+  </si>
+  <si>
+    <t>FEDE - [F450] = FEDE - 0000 = FEDE</t>
+  </si>
+  <si>
+    <t>1101 1110 1010 1101</t>
+  </si>
+  <si>
+    <t>0x6858</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>6858</t>
+  </si>
+  <si>
+    <t>F1FA</t>
+  </si>
+  <si>
+    <t>F901</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>2E80</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>A64B</t>
+  </si>
+  <si>
     <t>0x0010</t>
   </si>
   <si>
-    <t>6880</t>
-  </si>
-  <si>
-    <t>FF40</t>
-  </si>
-  <si>
-    <t>F101</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>[SP+1]</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Instrucción primer palabra</t>
-  </si>
-  <si>
-    <t>2da palabra</t>
-  </si>
-  <si>
-    <t>3er palabra</t>
-  </si>
-  <si>
-    <t>Instrucciones decodificada</t>
-  </si>
-  <si>
-    <t>Ejecución</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>4228</t>
-  </si>
-  <si>
-    <t>B000</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>6008</t>
-  </si>
-  <si>
-    <t>FEDE</t>
-  </si>
-  <si>
-    <t>F450</t>
-  </si>
-  <si>
-    <t>DEAD</t>
-  </si>
-  <si>
-    <t>3840</t>
-  </si>
-  <si>
-    <t>2114</t>
-  </si>
-  <si>
-    <t>F9F7</t>
-  </si>
-  <si>
-    <t>C000</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>1872</t>
-  </si>
-  <si>
-    <t>6858</t>
-  </si>
-  <si>
-    <t>F1FA</t>
-  </si>
-  <si>
-    <t>F901</t>
-  </si>
-  <si>
-    <t>0034</t>
-  </si>
-  <si>
-    <t>2E80</t>
-  </si>
-  <si>
-    <t>A64B</t>
-  </si>
-  <si>
-    <t>3862</t>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>MOV R2 , 0x0004</t>
+  </si>
+  <si>
+    <t>R2 = 0x0004</t>
+  </si>
+  <si>
+    <t>0001 1000 0111 0010</t>
+  </si>
+  <si>
+    <t>MOV R1 , [ R2 ]</t>
+  </si>
+  <si>
+    <t>R1 = [0x004] = 0x6858</t>
+  </si>
+  <si>
+    <t>0110 1000 0101 1000</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>CMP R1 , [[0 x0004 ]]</t>
+  </si>
+  <si>
+    <t>R1 - [[0x0004]] = R1 - [6858] = R1 - 0000</t>
+  </si>
+  <si>
+    <t>1111 0001 1111 1010</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JE 1111 1010 (main)
+</t>
+  </si>
+  <si>
+    <t>No se produce salto ya que Z = 0</t>
+  </si>
+  <si>
+    <t>1111 1001 0000 0001</t>
+  </si>
+  <si>
+    <t>JNE 0000 0001 (seguir)</t>
+  </si>
+  <si>
+    <t>Se produce un salto a Pc = 0009 ya que Z = 0</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010 1110 1000 0000</t>
+  </si>
+  <si>
+    <t>000A</t>
+  </si>
+  <si>
+    <t>000B</t>
+  </si>
+  <si>
+    <t>000C</t>
+  </si>
+  <si>
+    <t>ADD [R2 + 0008], 064B</t>
+  </si>
+  <si>
+    <t>[R2 + 0008] = [R2 + 0008] + A64B -&gt; [000C] = [000C] + A64B -&gt; [000C]  = 3862 + A64B = DEAD</t>
+  </si>
+  <si>
+    <t>000D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -314,6 +726,11 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -379,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -395,6 +812,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -406,13 +826,16 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -427,11 +850,11 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,11 +1168,11 @@
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -783,1000 +1206,1246 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="6" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="J6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="10" t="s">
+      <c r="K6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10" t="s">
+      <c r="L6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="5" t="s">
+      <c r="M6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="M8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="F14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="F24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T26" s="16"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="F28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="M8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="F30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" s="16"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T32" s="16"/>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="E34" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="8"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="C35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="8"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="8"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="8"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="8"/>
+      <c r="A36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="8"/>
+      <c r="A38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
     </row>
     <row r="40" ht="12.75" customHeight="1"/>
     <row r="41" ht="12.75" customHeight="1"/>
@@ -2982,14 +3651,14 @@
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>15</v>
@@ -3012,7 +3681,7 @@
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>0.0</v>
       </c>
       <c r="O3" s="4">
@@ -3026,1000 +3695,1199 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="6" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="A6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="M8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="M8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="8"/>
+      <c r="A22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="8"/>
+      <c r="A24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="R26" s="9"/>
+      <c r="S26" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="T26" s="16"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="C27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="18" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="8"/>
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="8"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="8"/>
+      <c r="A32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="8"/>
+      <c r="A34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="8"/>
+      <c r="A36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="8"/>
+      <c r="A38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
     </row>
     <row r="40" ht="12.75" customHeight="1"/>
     <row r="41" ht="12.75" customHeight="1"/>
@@ -5012,6 +5880,15 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="C19:N19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
@@ -5037,15 +5914,6 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:U20"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="C29:N29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="Q29:R29"/>
@@ -5145,10 +6013,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="11.57"/>
     <col customWidth="1" min="2" max="12" width="9.0"/>
-    <col customWidth="1" min="13" max="13" width="5.0"/>
-    <col customWidth="1" min="14" max="14" width="5.29"/>
-    <col customWidth="1" min="15" max="15" width="4.57"/>
-    <col customWidth="1" min="16" max="16" width="4.86"/>
+    <col customWidth="1" min="13" max="13" width="3.57"/>
+    <col customWidth="1" min="14" max="15" width="4.57"/>
+    <col customWidth="1" min="16" max="16" width="5.71"/>
     <col customWidth="1" min="17" max="17" width="4.57"/>
     <col customWidth="1" min="18" max="18" width="4.71"/>
     <col customWidth="1" min="19" max="19" width="8.71"/>
@@ -5225,17 +6092,17 @@
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -5269,1000 +6136,1128 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="6" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="M8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="B18" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="M8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="8"/>
+      <c r="E22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="8"/>
+      <c r="A24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="8"/>
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="8"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="8"/>
+      <c r="A32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="8"/>
+      <c r="A34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="8"/>
+      <c r="A36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="8"/>
+      <c r="A38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
     </row>
     <row r="40" ht="12.75" customHeight="1"/>
     <row r="41" ht="12.75" customHeight="1"/>

--- a/Planillas de Seguimiento.xlsx
+++ b/Planillas de Seguimiento.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="232">
   <si>
     <t>PC</t>
   </si>
@@ -531,34 +531,37 @@
     <t>R1=0x4228 - 0x2114 = 2114</t>
   </si>
   <si>
+    <t>1111 1001 1111 0111</t>
+  </si>
+  <si>
+    <t>FA0B</t>
+  </si>
+  <si>
+    <t>JNE 1111 0111</t>
+  </si>
+  <si>
+    <t>Se produce el salto al Pc = FA02 ya que Z != 0 previo a JNE.</t>
+  </si>
+  <si>
+    <t>[SP] = FA04, SP = FFED, PC = FA08</t>
+  </si>
+  <si>
+    <t>FFED</t>
+  </si>
+  <si>
     <t>FA09</t>
   </si>
   <si>
-    <t>1111 1001 1111 0111</t>
-  </si>
-  <si>
-    <t>JNE 1111 0111</t>
-  </si>
-  <si>
-    <t>Se produce el salto al Pc = FA02 ya que Z != 0 previo a JNE.</t>
-  </si>
-  <si>
-    <t>[SP] = FA04, SP = FFED, PC = FA08</t>
-  </si>
-  <si>
-    <t>FFED</t>
-  </si>
-  <si>
     <t>R1=0x2114 - 0x2114 = 0000</t>
   </si>
   <si>
-    <t>FA0B</t>
-  </si>
-  <si>
     <t>No se realiza el salto ya que Z = 1</t>
   </si>
   <si>
     <t>1100 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>FA0C</t>
   </si>
   <si>
     <t>RET</t>
@@ -4134,7 +4137,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>164</v>
@@ -4146,12 +4149,12 @@
         <v>152</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="9"/>
       <c r="I16" s="18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="9"/>
@@ -4291,7 +4294,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>151</v>
@@ -4318,7 +4321,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -4360,12 +4363,12 @@
         <v>152</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="9"/>
@@ -4416,7 +4419,7 @@
         <v>106</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>177</v>
@@ -4433,7 +4436,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="9"/>
       <c r="I24" s="18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="9"/>
@@ -4447,7 +4450,7 @@
       </c>
       <c r="R24" s="9"/>
       <c r="S24" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T24" s="16"/>
       <c r="U24" s="9"/>
@@ -4458,7 +4461,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -4498,19 +4501,19 @@
         <v>146</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="9"/>
       <c r="I26" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>147</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>148</v>
@@ -4519,11 +4522,11 @@
       <c r="O26" s="16"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R26" s="9"/>
       <c r="S26" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T26" s="16"/>
       <c r="U26" s="9"/>
@@ -4534,7 +4537,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -4566,7 +4569,7 @@
         <v>115</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>164</v>
@@ -4578,12 +4581,12 @@
         <v>149</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="9"/>
       <c r="I28" s="18" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="9"/>
@@ -6099,10 +6102,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -6200,34 +6203,34 @@
         <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="H6" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="13" t="s">
@@ -6247,7 +6250,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -6356,7 +6359,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>62</v>
@@ -6373,14 +6376,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="9"/>
       <c r="I10" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="16"/>
@@ -6389,7 +6392,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="9"/>
       <c r="S10" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="9"/>
@@ -6400,7 +6403,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -6428,7 +6431,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>62</v>
@@ -6437,15 +6440,15 @@
         <v>54</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="9"/>
       <c r="I12" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="9"/>
@@ -6457,7 +6460,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="9"/>
       <c r="S12" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="9"/>
@@ -6468,7 +6471,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -6496,7 +6499,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>62</v>
@@ -6505,22 +6508,22 @@
         <v>54</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="9"/>
       <c r="I14" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="16"/>
@@ -6529,7 +6532,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="9"/>
       <c r="S14" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T14" s="16"/>
       <c r="U14" s="9"/>
@@ -6538,7 +6541,7 @@
       <c r="A15" s="17"/>
       <c r="B15" s="11"/>
       <c r="C15" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -6566,7 +6569,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>62</v>
@@ -6575,15 +6578,15 @@
         <v>54</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="9"/>
       <c r="I16" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="9"/>
@@ -6595,7 +6598,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="9"/>
       <c r="S16" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="9"/>
@@ -6606,7 +6609,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -6634,7 +6637,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>62</v>
@@ -6643,15 +6646,15 @@
         <v>54</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="9"/>
       <c r="I18" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="9"/>
@@ -6663,7 +6666,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="9"/>
       <c r="S18" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="9"/>
@@ -6674,7 +6677,7 @@
         <v>67</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -6702,7 +6705,7 @@
         <v>92</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>62</v>
@@ -6711,35 +6714,35 @@
         <v>54</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T20" s="16"/>
       <c r="U20" s="9"/>
@@ -6750,7 +6753,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -6780,7 +6783,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>62</v>
@@ -6792,12 +6795,12 @@
         <v>149</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="9"/>
